--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311DF13-A65D-4DF1-B351-872C3735493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4377562E-EA47-4E23-A202-4F3D2AC2B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{4B0FDD95-A836-47C3-BAC6-EC24CA6ECC87}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2F9E4051-B54B-42D6-9078-33D259D5F469}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092CB5EF-F762-47CE-B7C1-C09791275E66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC870BD-3D95-432D-ABB8-5A960965E94D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4377562E-EA47-4E23-A202-4F3D2AC2B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D038E1-6D80-4388-84D2-0126AFAD2C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{2F9E4051-B54B-42D6-9078-33D259D5F469}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{A6FD1F85-E99D-4180-A9D1-9D1E7A7A5AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC870BD-3D95-432D-ABB8-5A960965E94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F64CD4-026A-4D47-B1FE-E7B03BEA30AD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
